--- a/doc/6.OrderSystem WBS.xlsx
+++ b/doc/6.OrderSystem WBS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>功能名稱</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>庫存管理</t>
+  </si>
+  <si>
+    <t>已實作後端功能差列表呈現</t>
   </si>
   <si>
     <t>訂單管理</t>
@@ -469,7 +472,9 @@
       <c r="D4" s="4">
         <v>44517.0</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="4">
+        <v>44519.0</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -535,8 +540,12 @@
       <c r="D6" s="4">
         <v>44518.0</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="4">
+        <v>44519.0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -559,10 +568,10 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>8.0</v>
@@ -595,7 +604,7 @@
     <row r="8">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>8.0</v>

--- a/doc/6.OrderSystem WBS.xlsx
+++ b/doc/6.OrderSystem WBS.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="WBS" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhu31AnbEVgeiaylZVSUV65q6FvJQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhT5+w1SJrq4k0gNdZcrj8cyIFoaA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>功能名稱</t>
   </si>
@@ -42,9 +42,6 @@
     <t>帳號管理</t>
   </si>
   <si>
-    <t>已先處理單帳號登入登出</t>
-  </si>
-  <si>
     <t>權限管理</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t>庫存管理</t>
-  </si>
-  <si>
-    <t>已實作後端功能差列表呈現</t>
   </si>
   <si>
     <t>訂單管理</t>
@@ -129,10 +123,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -352,7 +346,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="32.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -392,7 +385,6 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -410,9 +402,7 @@
       <c r="E2" s="3">
         <v>44517.0</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -431,12 +421,11 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>5.0</v>
@@ -448,7 +437,7 @@
         <v>44518.0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -468,14 +457,13 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>4.0</v>
@@ -505,12 +493,11 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>4.0</v>
@@ -518,11 +505,11 @@
       <c r="D5" s="3">
         <v>44517.0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>44526.0</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -542,12 +529,11 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>6.0</v>
@@ -555,12 +541,10 @@
       <c r="D6" s="3">
         <v>44518.0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>44520.0</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -579,14 +563,13 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>8.0</v>
@@ -594,7 +577,7 @@
       <c r="D7" s="3">
         <v>44519.0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>44524.0</v>
       </c>
       <c r="F7" s="2"/>
@@ -616,12 +599,11 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>8.0</v>
@@ -629,7 +611,7 @@
       <c r="D8" s="3">
         <v>44520.0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>44525.0</v>
       </c>
       <c r="F8" s="2"/>
@@ -651,7 +633,6 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -678,7 +659,6 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
@@ -705,7 +685,6 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
@@ -732,7 +711,6 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
@@ -759,7 +737,6 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
@@ -786,7 +763,6 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
@@ -813,7 +789,6 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
@@ -840,7 +815,6 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
@@ -867,7 +841,6 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
@@ -894,7 +867,6 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
@@ -921,7 +893,6 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -948,7 +919,6 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
@@ -975,7 +945,6 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
@@ -1002,7 +971,6 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
@@ -1029,7 +997,6 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
@@ -1056,7 +1023,6 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
@@ -1083,7 +1049,6 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
@@ -1110,7 +1075,6 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
@@ -1137,7 +1101,6 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
@@ -1164,7 +1127,6 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
@@ -1191,7 +1153,6 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
@@ -1218,7 +1179,6 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
@@ -1245,7 +1205,6 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2"/>
@@ -1272,7 +1231,6 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2"/>
@@ -1299,7 +1257,6 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
@@ -1326,7 +1283,6 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -1353,7 +1309,6 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
@@ -1380,7 +1335,6 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
@@ -1407,7 +1361,6 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2"/>
@@ -1434,7 +1387,6 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2"/>
@@ -1461,7 +1413,6 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
@@ -1488,7 +1439,6 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2"/>
@@ -1515,7 +1465,6 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2"/>
@@ -1542,7 +1491,6 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2"/>
@@ -1569,7 +1517,6 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2"/>
@@ -1596,7 +1543,6 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2"/>
@@ -1623,7 +1569,6 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2"/>
@@ -1650,7 +1595,6 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2"/>
@@ -1677,7 +1621,6 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
@@ -1704,7 +1647,6 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
@@ -1731,7 +1673,6 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2"/>
@@ -1758,7 +1699,6 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2"/>
@@ -1785,7 +1725,6 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
@@ -1812,7 +1751,6 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2"/>
@@ -1839,7 +1777,6 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2"/>
@@ -1866,7 +1803,6 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2"/>
@@ -1893,7 +1829,6 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2"/>
@@ -1920,7 +1855,6 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2"/>
@@ -1947,7 +1881,6 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2"/>
@@ -1974,7 +1907,6 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2"/>
@@ -2001,7 +1933,6 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2"/>
@@ -2028,7 +1959,6 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2"/>
@@ -2055,7 +1985,6 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2"/>
@@ -2082,7 +2011,6 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2"/>
@@ -2109,7 +2037,6 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2"/>
@@ -2136,7 +2063,6 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2"/>
@@ -2163,7 +2089,6 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
-      <c r="Y64" s="2"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2"/>
@@ -2190,7 +2115,6 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2"/>
@@ -2217,7 +2141,6 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2"/>
@@ -2244,7 +2167,6 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2"/>
@@ -2271,7 +2193,6 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2"/>
@@ -2298,7 +2219,6 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2"/>
@@ -2325,7 +2245,6 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2"/>
@@ -2352,7 +2271,6 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2"/>
@@ -2379,7 +2297,6 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2"/>
@@ -2406,7 +2323,6 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
       <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2"/>
@@ -2433,7 +2349,6 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2"/>
@@ -2460,7 +2375,6 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2"/>
@@ -2487,7 +2401,6 @@
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
       <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2"/>
@@ -2514,7 +2427,6 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2"/>
@@ -2541,7 +2453,6 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
       <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2"/>
@@ -2568,7 +2479,6 @@
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2"/>
@@ -2595,7 +2505,6 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2"/>
@@ -2622,7 +2531,6 @@
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2"/>
@@ -2649,7 +2557,6 @@
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
       <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2"/>
@@ -2676,7 +2583,6 @@
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
-      <c r="Y83" s="2"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2"/>
@@ -2703,7 +2609,6 @@
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
       <c r="X84" s="2"/>
-      <c r="Y84" s="2"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2"/>
@@ -2730,7 +2635,6 @@
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
-      <c r="Y85" s="2"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2"/>
@@ -2757,7 +2661,6 @@
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
-      <c r="Y86" s="2"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2"/>
@@ -2784,7 +2687,6 @@
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2"/>
@@ -2811,7 +2713,6 @@
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
       <c r="X88" s="2"/>
-      <c r="Y88" s="2"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2"/>
@@ -2838,7 +2739,6 @@
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
       <c r="X89" s="2"/>
-      <c r="Y89" s="2"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2"/>
@@ -2865,7 +2765,6 @@
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
       <c r="X90" s="2"/>
-      <c r="Y90" s="2"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2"/>
@@ -2892,7 +2791,6 @@
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
-      <c r="Y91" s="2"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2"/>
@@ -2919,7 +2817,6 @@
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2"/>
@@ -2946,7 +2843,6 @@
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
-      <c r="Y93" s="2"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2"/>
@@ -2973,7 +2869,6 @@
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
       <c r="X94" s="2"/>
-      <c r="Y94" s="2"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2"/>
@@ -3000,7 +2895,6 @@
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
       <c r="X95" s="2"/>
-      <c r="Y95" s="2"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2"/>
@@ -3027,7 +2921,6 @@
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
-      <c r="Y96" s="2"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2"/>
@@ -3054,7 +2947,6 @@
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
       <c r="X97" s="2"/>
-      <c r="Y97" s="2"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2"/>
@@ -3081,7 +2973,6 @@
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
       <c r="X98" s="2"/>
-      <c r="Y98" s="2"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2"/>
@@ -3108,7 +2999,6 @@
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
       <c r="X99" s="2"/>
-      <c r="Y99" s="2"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2"/>
@@ -3135,7 +3025,6 @@
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2"/>
@@ -3162,7 +3051,6 @@
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
       <c r="X101" s="2"/>
-      <c r="Y101" s="2"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2"/>
@@ -3189,7 +3077,6 @@
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
       <c r="X102" s="2"/>
-      <c r="Y102" s="2"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2"/>
@@ -3216,7 +3103,6 @@
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
       <c r="X103" s="2"/>
-      <c r="Y103" s="2"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2"/>
@@ -3243,7 +3129,6 @@
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
       <c r="X104" s="2"/>
-      <c r="Y104" s="2"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2"/>
@@ -3270,7 +3155,6 @@
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
       <c r="X105" s="2"/>
-      <c r="Y105" s="2"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2"/>
@@ -3297,7 +3181,6 @@
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
       <c r="X106" s="2"/>
-      <c r="Y106" s="2"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2"/>
@@ -3324,7 +3207,6 @@
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
       <c r="X107" s="2"/>
-      <c r="Y107" s="2"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2"/>
@@ -3351,7 +3233,6 @@
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
       <c r="X108" s="2"/>
-      <c r="Y108" s="2"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2"/>
@@ -3378,7 +3259,6 @@
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
       <c r="X109" s="2"/>
-      <c r="Y109" s="2"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2"/>
@@ -3405,7 +3285,6 @@
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
       <c r="X110" s="2"/>
-      <c r="Y110" s="2"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2"/>
@@ -3432,7 +3311,6 @@
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
       <c r="X111" s="2"/>
-      <c r="Y111" s="2"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2"/>
@@ -3459,7 +3337,6 @@
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
       <c r="X112" s="2"/>
-      <c r="Y112" s="2"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2"/>
@@ -3486,7 +3363,6 @@
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
       <c r="X113" s="2"/>
-      <c r="Y113" s="2"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2"/>
@@ -3513,7 +3389,6 @@
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
       <c r="X114" s="2"/>
-      <c r="Y114" s="2"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2"/>
@@ -3540,7 +3415,6 @@
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
       <c r="X115" s="2"/>
-      <c r="Y115" s="2"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2"/>
@@ -3567,7 +3441,6 @@
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
       <c r="X116" s="2"/>
-      <c r="Y116" s="2"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2"/>
@@ -3594,7 +3467,6 @@
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
       <c r="X117" s="2"/>
-      <c r="Y117" s="2"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2"/>
@@ -3621,7 +3493,6 @@
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
       <c r="X118" s="2"/>
-      <c r="Y118" s="2"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2"/>
@@ -3648,7 +3519,6 @@
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
       <c r="X119" s="2"/>
-      <c r="Y119" s="2"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2"/>
@@ -3675,7 +3545,6 @@
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
       <c r="X120" s="2"/>
-      <c r="Y120" s="2"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2"/>
@@ -3702,7 +3571,6 @@
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
-      <c r="Y121" s="2"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2"/>
@@ -3729,7 +3597,6 @@
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
       <c r="X122" s="2"/>
-      <c r="Y122" s="2"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2"/>
@@ -3756,7 +3623,6 @@
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
       <c r="X123" s="2"/>
-      <c r="Y123" s="2"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2"/>
@@ -3783,7 +3649,6 @@
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
       <c r="X124" s="2"/>
-      <c r="Y124" s="2"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2"/>
@@ -3810,7 +3675,6 @@
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
       <c r="X125" s="2"/>
-      <c r="Y125" s="2"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2"/>
@@ -3837,7 +3701,6 @@
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
       <c r="X126" s="2"/>
-      <c r="Y126" s="2"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2"/>
@@ -3864,7 +3727,6 @@
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
       <c r="X127" s="2"/>
-      <c r="Y127" s="2"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2"/>
@@ -3891,7 +3753,6 @@
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
       <c r="X128" s="2"/>
-      <c r="Y128" s="2"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2"/>
@@ -3918,7 +3779,6 @@
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
       <c r="X129" s="2"/>
-      <c r="Y129" s="2"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2"/>
@@ -3945,7 +3805,6 @@
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
       <c r="X130" s="2"/>
-      <c r="Y130" s="2"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2"/>
@@ -3972,7 +3831,6 @@
       <c r="V131" s="2"/>
       <c r="W131" s="2"/>
       <c r="X131" s="2"/>
-      <c r="Y131" s="2"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2"/>
@@ -3999,7 +3857,6 @@
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
       <c r="X132" s="2"/>
-      <c r="Y132" s="2"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2"/>
@@ -4026,7 +3883,6 @@
       <c r="V133" s="2"/>
       <c r="W133" s="2"/>
       <c r="X133" s="2"/>
-      <c r="Y133" s="2"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2"/>
@@ -4053,7 +3909,6 @@
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
       <c r="X134" s="2"/>
-      <c r="Y134" s="2"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2"/>
@@ -4080,7 +3935,6 @@
       <c r="V135" s="2"/>
       <c r="W135" s="2"/>
       <c r="X135" s="2"/>
-      <c r="Y135" s="2"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2"/>
@@ -4107,7 +3961,6 @@
       <c r="V136" s="2"/>
       <c r="W136" s="2"/>
       <c r="X136" s="2"/>
-      <c r="Y136" s="2"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2"/>
@@ -4134,7 +3987,6 @@
       <c r="V137" s="2"/>
       <c r="W137" s="2"/>
       <c r="X137" s="2"/>
-      <c r="Y137" s="2"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2"/>
@@ -4161,7 +4013,6 @@
       <c r="V138" s="2"/>
       <c r="W138" s="2"/>
       <c r="X138" s="2"/>
-      <c r="Y138" s="2"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2"/>
@@ -4188,7 +4039,6 @@
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
       <c r="X139" s="2"/>
-      <c r="Y139" s="2"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2"/>
@@ -4215,7 +4065,6 @@
       <c r="V140" s="2"/>
       <c r="W140" s="2"/>
       <c r="X140" s="2"/>
-      <c r="Y140" s="2"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2"/>
@@ -4242,7 +4091,6 @@
       <c r="V141" s="2"/>
       <c r="W141" s="2"/>
       <c r="X141" s="2"/>
-      <c r="Y141" s="2"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2"/>
@@ -4269,7 +4117,6 @@
       <c r="V142" s="2"/>
       <c r="W142" s="2"/>
       <c r="X142" s="2"/>
-      <c r="Y142" s="2"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2"/>
@@ -4296,7 +4143,6 @@
       <c r="V143" s="2"/>
       <c r="W143" s="2"/>
       <c r="X143" s="2"/>
-      <c r="Y143" s="2"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2"/>
@@ -4323,7 +4169,6 @@
       <c r="V144" s="2"/>
       <c r="W144" s="2"/>
       <c r="X144" s="2"/>
-      <c r="Y144" s="2"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2"/>
@@ -4350,7 +4195,6 @@
       <c r="V145" s="2"/>
       <c r="W145" s="2"/>
       <c r="X145" s="2"/>
-      <c r="Y145" s="2"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2"/>
@@ -4377,7 +4221,6 @@
       <c r="V146" s="2"/>
       <c r="W146" s="2"/>
       <c r="X146" s="2"/>
-      <c r="Y146" s="2"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2"/>
@@ -4404,7 +4247,6 @@
       <c r="V147" s="2"/>
       <c r="W147" s="2"/>
       <c r="X147" s="2"/>
-      <c r="Y147" s="2"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2"/>
@@ -4431,7 +4273,6 @@
       <c r="V148" s="2"/>
       <c r="W148" s="2"/>
       <c r="X148" s="2"/>
-      <c r="Y148" s="2"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2"/>
@@ -4458,7 +4299,6 @@
       <c r="V149" s="2"/>
       <c r="W149" s="2"/>
       <c r="X149" s="2"/>
-      <c r="Y149" s="2"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2"/>
@@ -4485,7 +4325,6 @@
       <c r="V150" s="2"/>
       <c r="W150" s="2"/>
       <c r="X150" s="2"/>
-      <c r="Y150" s="2"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2"/>
@@ -4512,7 +4351,6 @@
       <c r="V151" s="2"/>
       <c r="W151" s="2"/>
       <c r="X151" s="2"/>
-      <c r="Y151" s="2"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2"/>
@@ -4539,7 +4377,6 @@
       <c r="V152" s="2"/>
       <c r="W152" s="2"/>
       <c r="X152" s="2"/>
-      <c r="Y152" s="2"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2"/>
@@ -4566,7 +4403,6 @@
       <c r="V153" s="2"/>
       <c r="W153" s="2"/>
       <c r="X153" s="2"/>
-      <c r="Y153" s="2"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2"/>
@@ -4593,7 +4429,6 @@
       <c r="V154" s="2"/>
       <c r="W154" s="2"/>
       <c r="X154" s="2"/>
-      <c r="Y154" s="2"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2"/>
@@ -4620,7 +4455,6 @@
       <c r="V155" s="2"/>
       <c r="W155" s="2"/>
       <c r="X155" s="2"/>
-      <c r="Y155" s="2"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2"/>
@@ -4647,7 +4481,6 @@
       <c r="V156" s="2"/>
       <c r="W156" s="2"/>
       <c r="X156" s="2"/>
-      <c r="Y156" s="2"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2"/>
@@ -4674,7 +4507,6 @@
       <c r="V157" s="2"/>
       <c r="W157" s="2"/>
       <c r="X157" s="2"/>
-      <c r="Y157" s="2"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2"/>
@@ -4701,7 +4533,6 @@
       <c r="V158" s="2"/>
       <c r="W158" s="2"/>
       <c r="X158" s="2"/>
-      <c r="Y158" s="2"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2"/>
@@ -4728,7 +4559,6 @@
       <c r="V159" s="2"/>
       <c r="W159" s="2"/>
       <c r="X159" s="2"/>
-      <c r="Y159" s="2"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2"/>
@@ -4755,7 +4585,6 @@
       <c r="V160" s="2"/>
       <c r="W160" s="2"/>
       <c r="X160" s="2"/>
-      <c r="Y160" s="2"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2"/>
@@ -4782,7 +4611,6 @@
       <c r="V161" s="2"/>
       <c r="W161" s="2"/>
       <c r="X161" s="2"/>
-      <c r="Y161" s="2"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2"/>
@@ -4809,7 +4637,6 @@
       <c r="V162" s="2"/>
       <c r="W162" s="2"/>
       <c r="X162" s="2"/>
-      <c r="Y162" s="2"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2"/>
@@ -4836,7 +4663,6 @@
       <c r="V163" s="2"/>
       <c r="W163" s="2"/>
       <c r="X163" s="2"/>
-      <c r="Y163" s="2"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2"/>
@@ -4863,7 +4689,6 @@
       <c r="V164" s="2"/>
       <c r="W164" s="2"/>
       <c r="X164" s="2"/>
-      <c r="Y164" s="2"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2"/>
@@ -4890,7 +4715,6 @@
       <c r="V165" s="2"/>
       <c r="W165" s="2"/>
       <c r="X165" s="2"/>
-      <c r="Y165" s="2"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2"/>
@@ -4917,7 +4741,6 @@
       <c r="V166" s="2"/>
       <c r="W166" s="2"/>
       <c r="X166" s="2"/>
-      <c r="Y166" s="2"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2"/>
@@ -4944,7 +4767,6 @@
       <c r="V167" s="2"/>
       <c r="W167" s="2"/>
       <c r="X167" s="2"/>
-      <c r="Y167" s="2"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2"/>
@@ -4971,7 +4793,6 @@
       <c r="V168" s="2"/>
       <c r="W168" s="2"/>
       <c r="X168" s="2"/>
-      <c r="Y168" s="2"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2"/>
@@ -4998,7 +4819,6 @@
       <c r="V169" s="2"/>
       <c r="W169" s="2"/>
       <c r="X169" s="2"/>
-      <c r="Y169" s="2"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2"/>
@@ -5025,7 +4845,6 @@
       <c r="V170" s="2"/>
       <c r="W170" s="2"/>
       <c r="X170" s="2"/>
-      <c r="Y170" s="2"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2"/>
@@ -5052,7 +4871,6 @@
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
       <c r="X171" s="2"/>
-      <c r="Y171" s="2"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2"/>
@@ -5079,7 +4897,6 @@
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
       <c r="X172" s="2"/>
-      <c r="Y172" s="2"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2"/>
@@ -5106,7 +4923,6 @@
       <c r="V173" s="2"/>
       <c r="W173" s="2"/>
       <c r="X173" s="2"/>
-      <c r="Y173" s="2"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2"/>
@@ -5133,7 +4949,6 @@
       <c r="V174" s="2"/>
       <c r="W174" s="2"/>
       <c r="X174" s="2"/>
-      <c r="Y174" s="2"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2"/>
@@ -5160,7 +4975,6 @@
       <c r="V175" s="2"/>
       <c r="W175" s="2"/>
       <c r="X175" s="2"/>
-      <c r="Y175" s="2"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2"/>
@@ -5187,7 +5001,6 @@
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
       <c r="X176" s="2"/>
-      <c r="Y176" s="2"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2"/>
@@ -5214,7 +5027,6 @@
       <c r="V177" s="2"/>
       <c r="W177" s="2"/>
       <c r="X177" s="2"/>
-      <c r="Y177" s="2"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2"/>
@@ -5241,7 +5053,6 @@
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
       <c r="X178" s="2"/>
-      <c r="Y178" s="2"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2"/>
@@ -5268,7 +5079,6 @@
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
       <c r="X179" s="2"/>
-      <c r="Y179" s="2"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2"/>
@@ -5295,7 +5105,6 @@
       <c r="V180" s="2"/>
       <c r="W180" s="2"/>
       <c r="X180" s="2"/>
-      <c r="Y180" s="2"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2"/>
@@ -5322,7 +5131,6 @@
       <c r="V181" s="2"/>
       <c r="W181" s="2"/>
       <c r="X181" s="2"/>
-      <c r="Y181" s="2"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2"/>
@@ -5349,7 +5157,6 @@
       <c r="V182" s="2"/>
       <c r="W182" s="2"/>
       <c r="X182" s="2"/>
-      <c r="Y182" s="2"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2"/>
@@ -5376,7 +5183,6 @@
       <c r="V183" s="2"/>
       <c r="W183" s="2"/>
       <c r="X183" s="2"/>
-      <c r="Y183" s="2"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2"/>
@@ -5403,7 +5209,6 @@
       <c r="V184" s="2"/>
       <c r="W184" s="2"/>
       <c r="X184" s="2"/>
-      <c r="Y184" s="2"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2"/>
@@ -5430,7 +5235,6 @@
       <c r="V185" s="2"/>
       <c r="W185" s="2"/>
       <c r="X185" s="2"/>
-      <c r="Y185" s="2"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2"/>
@@ -5457,7 +5261,6 @@
       <c r="V186" s="2"/>
       <c r="W186" s="2"/>
       <c r="X186" s="2"/>
-      <c r="Y186" s="2"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="2"/>
@@ -5484,7 +5287,6 @@
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
       <c r="X187" s="2"/>
-      <c r="Y187" s="2"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2"/>
@@ -5511,7 +5313,6 @@
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
       <c r="X188" s="2"/>
-      <c r="Y188" s="2"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2"/>
@@ -5538,7 +5339,6 @@
       <c r="V189" s="2"/>
       <c r="W189" s="2"/>
       <c r="X189" s="2"/>
-      <c r="Y189" s="2"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2"/>
@@ -5565,7 +5365,6 @@
       <c r="V190" s="2"/>
       <c r="W190" s="2"/>
       <c r="X190" s="2"/>
-      <c r="Y190" s="2"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2"/>
@@ -5592,7 +5391,6 @@
       <c r="V191" s="2"/>
       <c r="W191" s="2"/>
       <c r="X191" s="2"/>
-      <c r="Y191" s="2"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2"/>
@@ -5619,7 +5417,6 @@
       <c r="V192" s="2"/>
       <c r="W192" s="2"/>
       <c r="X192" s="2"/>
-      <c r="Y192" s="2"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2"/>
@@ -5646,7 +5443,6 @@
       <c r="V193" s="2"/>
       <c r="W193" s="2"/>
       <c r="X193" s="2"/>
-      <c r="Y193" s="2"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2"/>
@@ -5673,7 +5469,6 @@
       <c r="V194" s="2"/>
       <c r="W194" s="2"/>
       <c r="X194" s="2"/>
-      <c r="Y194" s="2"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2"/>
@@ -5700,7 +5495,6 @@
       <c r="V195" s="2"/>
       <c r="W195" s="2"/>
       <c r="X195" s="2"/>
-      <c r="Y195" s="2"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2"/>
@@ -5727,7 +5521,6 @@
       <c r="V196" s="2"/>
       <c r="W196" s="2"/>
       <c r="X196" s="2"/>
-      <c r="Y196" s="2"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2"/>
@@ -5754,7 +5547,6 @@
       <c r="V197" s="2"/>
       <c r="W197" s="2"/>
       <c r="X197" s="2"/>
-      <c r="Y197" s="2"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2"/>
@@ -5781,7 +5573,6 @@
       <c r="V198" s="2"/>
       <c r="W198" s="2"/>
       <c r="X198" s="2"/>
-      <c r="Y198" s="2"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2"/>
@@ -5808,7 +5599,6 @@
       <c r="V199" s="2"/>
       <c r="W199" s="2"/>
       <c r="X199" s="2"/>
-      <c r="Y199" s="2"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2"/>
@@ -5835,7 +5625,6 @@
       <c r="V200" s="2"/>
       <c r="W200" s="2"/>
       <c r="X200" s="2"/>
-      <c r="Y200" s="2"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2"/>
@@ -5862,7 +5651,6 @@
       <c r="V201" s="2"/>
       <c r="W201" s="2"/>
       <c r="X201" s="2"/>
-      <c r="Y201" s="2"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2"/>
@@ -5889,7 +5677,6 @@
       <c r="V202" s="2"/>
       <c r="W202" s="2"/>
       <c r="X202" s="2"/>
-      <c r="Y202" s="2"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2"/>
@@ -5916,7 +5703,6 @@
       <c r="V203" s="2"/>
       <c r="W203" s="2"/>
       <c r="X203" s="2"/>
-      <c r="Y203" s="2"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2"/>
@@ -5943,7 +5729,6 @@
       <c r="V204" s="2"/>
       <c r="W204" s="2"/>
       <c r="X204" s="2"/>
-      <c r="Y204" s="2"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2"/>
@@ -5970,7 +5755,6 @@
       <c r="V205" s="2"/>
       <c r="W205" s="2"/>
       <c r="X205" s="2"/>
-      <c r="Y205" s="2"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2"/>
@@ -5997,7 +5781,6 @@
       <c r="V206" s="2"/>
       <c r="W206" s="2"/>
       <c r="X206" s="2"/>
-      <c r="Y206" s="2"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2"/>
@@ -6024,7 +5807,6 @@
       <c r="V207" s="2"/>
       <c r="W207" s="2"/>
       <c r="X207" s="2"/>
-      <c r="Y207" s="2"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2"/>
@@ -6051,7 +5833,6 @@
       <c r="V208" s="2"/>
       <c r="W208" s="2"/>
       <c r="X208" s="2"/>
-      <c r="Y208" s="2"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2"/>
@@ -6078,7 +5859,6 @@
       <c r="V209" s="2"/>
       <c r="W209" s="2"/>
       <c r="X209" s="2"/>
-      <c r="Y209" s="2"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2"/>
@@ -6105,7 +5885,6 @@
       <c r="V210" s="2"/>
       <c r="W210" s="2"/>
       <c r="X210" s="2"/>
-      <c r="Y210" s="2"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2"/>
@@ -6132,7 +5911,6 @@
       <c r="V211" s="2"/>
       <c r="W211" s="2"/>
       <c r="X211" s="2"/>
-      <c r="Y211" s="2"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2"/>
@@ -6159,7 +5937,6 @@
       <c r="V212" s="2"/>
       <c r="W212" s="2"/>
       <c r="X212" s="2"/>
-      <c r="Y212" s="2"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="2"/>
@@ -6186,7 +5963,6 @@
       <c r="V213" s="2"/>
       <c r="W213" s="2"/>
       <c r="X213" s="2"/>
-      <c r="Y213" s="2"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="2"/>
@@ -6213,7 +5989,6 @@
       <c r="V214" s="2"/>
       <c r="W214" s="2"/>
       <c r="X214" s="2"/>
-      <c r="Y214" s="2"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2"/>
@@ -6240,7 +6015,6 @@
       <c r="V215" s="2"/>
       <c r="W215" s="2"/>
       <c r="X215" s="2"/>
-      <c r="Y215" s="2"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2"/>
@@ -6267,7 +6041,6 @@
       <c r="V216" s="2"/>
       <c r="W216" s="2"/>
       <c r="X216" s="2"/>
-      <c r="Y216" s="2"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2"/>
@@ -6294,7 +6067,6 @@
       <c r="V217" s="2"/>
       <c r="W217" s="2"/>
       <c r="X217" s="2"/>
-      <c r="Y217" s="2"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="2"/>
@@ -6321,7 +6093,6 @@
       <c r="V218" s="2"/>
       <c r="W218" s="2"/>
       <c r="X218" s="2"/>
-      <c r="Y218" s="2"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2"/>
@@ -6348,7 +6119,6 @@
       <c r="V219" s="2"/>
       <c r="W219" s="2"/>
       <c r="X219" s="2"/>
-      <c r="Y219" s="2"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="2"/>
@@ -6375,7 +6145,6 @@
       <c r="V220" s="2"/>
       <c r="W220" s="2"/>
       <c r="X220" s="2"/>
-      <c r="Y220" s="2"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
